--- a/output/aggregate_tables/Analysis Group Statistics/Area 61_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 61_summary.xlsx
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>29</v>
@@ -633,28 +633,28 @@
         <v>29</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>58</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>11</v>
@@ -796,28 +796,28 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>26</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.72972972972973</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>40.54054054054054</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>29.72972972972973</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>70.27027027027027</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>29.72972972972973</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>29</v>
@@ -839,28 +839,28 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>58</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
     </row>
   </sheetData>
@@ -931,16 +931,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>11</v>
@@ -1116,28 +1116,28 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>26</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>29.72972972972973</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>40.54054054054054</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>29.72972972972973</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>70.27027027027027</v>
+        <v>72.22222222222221</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>29.72972972972973</v>
+        <v>27.77777777777778</v>
       </c>
     </row>
     <row r="4">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>29</v>
@@ -1162,28 +1162,28 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>58</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>29</v>
@@ -1402,40 +1402,62 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>58</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>31.18279569892473</v>
+        <v>31.52173913043478</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>37.63440860215054</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>62.36559139784946</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>37.63440860215054</v>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+        <v>36.95652173913043</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>56.00000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1554,34 +1576,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.613679759420712</v>
+        <v>3.668245990173823</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.072622810233756</v>
+        <v>5.204463749886533</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>5.693494040344532</v>
+        <v>3.170768991939643</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.686302569654469</v>
+        <v>8.872709740060355</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.693494040344532</v>
+        <v>3.170768991939643</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>25.13025641063614</v>
+        <v>30.45835901571485</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.27604004292039</v>
+        <v>43.21395724358334</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>60.40629645355654</v>
+        <v>73.6723162592982</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
     </row>
   </sheetData>
@@ -1699,34 +1721,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.733311146603302</v>
+        <v>1.766472197356413</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.747355083516078</v>
+        <v>1.879196023168855</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.789022820790372</v>
+        <v>2.015233962385483</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.480666230119379</v>
+        <v>3.645668220525268</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.789022820790372</v>
+        <v>2.015233962385483</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>32.89209533727735</v>
+        <v>31.20478221102417</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>33.15859942845047</v>
+        <v>33.19605183855342</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>33.94930523427217</v>
+        <v>35.59916595042241</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>66.05069476572781</v>
+        <v>64.40083404957758</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>33.94930523427217</v>
+        <v>35.59916595042241</v>
       </c>
     </row>
     <row r="5">
@@ -1734,34 +1756,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.88036861281741</v>
+        <v>1.90177379281741</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>3.325267726717678</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>3.904471219554159</v>
+        <v>1.155535029554159</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.205636339535088</v>
+        <v>5.227041519535089</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.904471219554159</v>
+        <v>1.155535029554159</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>20.64046555566017</v>
+        <v>29.79633347427351</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.50086132517749</v>
+        <v>52.099143678773</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>42.85867311916234</v>
+        <v>18.1045228469535</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>57.14132688083767</v>
+        <v>81.8954771530465</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>42.85867311916234</v>
+        <v>18.1045228469535</v>
       </c>
     </row>
     <row r="6">
@@ -1771,34 +1793,34 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.613679759420712</v>
+        <v>3.668245990173823</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.072622810233756</v>
+        <v>5.204463749886533</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>5.693494040344532</v>
+        <v>3.170768991939643</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>8.686302569654469</v>
+        <v>8.872709740060355</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>5.693494040344532</v>
+        <v>3.170768991939643</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>25.13025641063614</v>
+        <v>30.45835901571486</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>35.27604004292039</v>
+        <v>43.21395724358334</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>60.40629645355653</v>
+        <v>73.6723162592982</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
     </row>
   </sheetData>
@@ -1918,31 +1940,31 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.13025641063614</v>
+        <v>30.45835901571485</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>35.27604004292039</v>
+        <v>43.21395724358334</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>60.40629645355654</v>
+        <v>73.6723162592982</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.59370354644347</v>
+        <v>26.3276837407018</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>12.7964975153495</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.05109167507333</v>
+        <v>40.05109167507332</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>47.15241080957718</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>52.84758919042283</v>
+        <v>52.84758919042282</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>47.15241080957718</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 61_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 61_summary.xlsx
@@ -1958,13 +1958,13 @@
         <v>12.7964975153495</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.05109167507332</v>
+        <v>40.05109167507333</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>47.15241080957718</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>52.84758919042282</v>
+        <v>52.84758919042283</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>47.15241080957718</v>
